--- a/ORG_PILE.xlsx
+++ b/ORG_PILE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D4E27-7ED5-447B-B714-F7A6AFA729C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9213ACC2-6401-4274-A5AD-1998A18B59A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1448">
   <si>
     <t>ORG_PILE_PK</t>
   </si>
@@ -4355,6 +4355,15 @@
   </si>
   <si>
     <t>กอง 1</t>
+  </si>
+  <si>
+    <t>ORG_PILE_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_PILE_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_PILE_STATUS</t>
   </si>
 </sst>
 </file>
@@ -4675,20 +4684,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C999"/>
+  <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A960" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
-    <col min="2" max="3" width="77.6328125" customWidth="1"/>
-    <col min="4" max="10" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="10" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4698,8 +4708,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -4710,7 +4729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -4721,7 +4740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -4732,7 +4751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -4743,7 +4762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -4754,7 +4773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10005</v>
       </c>
@@ -4765,7 +4784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10006</v>
       </c>
@@ -4776,7 +4795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10007</v>
       </c>
@@ -4787,7 +4806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10008</v>
       </c>
@@ -4798,7 +4817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10009</v>
       </c>
@@ -4809,7 +4828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10010</v>
       </c>
@@ -4820,7 +4839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10011</v>
       </c>
@@ -4831,7 +4850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10012</v>
       </c>
@@ -4842,7 +4861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10013</v>
       </c>
@@ -4853,7 +4872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10014</v>
       </c>
@@ -4864,7 +4883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10015</v>
       </c>
@@ -4875,7 +4894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10016</v>
       </c>
@@ -4886,7 +4905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10017</v>
       </c>
@@ -4897,7 +4916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10018</v>
       </c>
@@ -4908,7 +4927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10019</v>
       </c>
@@ -4919,7 +4938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10020</v>
       </c>
@@ -4930,7 +4949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10021</v>
       </c>
@@ -4941,7 +4960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10022</v>
       </c>
@@ -4952,7 +4971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10023</v>
       </c>
@@ -4963,7 +4982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10024</v>
       </c>
@@ -4974,7 +4993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>10025</v>
       </c>
@@ -4985,7 +5004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10026</v>
       </c>
@@ -4996,7 +5015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10027</v>
       </c>
@@ -5007,7 +5026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10028</v>
       </c>
@@ -5018,7 +5037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10029</v>
       </c>
@@ -5029,7 +5048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10030</v>
       </c>
@@ -5040,7 +5059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10031</v>
       </c>
@@ -5051,7 +5070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10032</v>
       </c>
@@ -5062,7 +5081,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>10033</v>
       </c>
@@ -5073,7 +5092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10034</v>
       </c>
@@ -5084,7 +5103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>10035</v>
       </c>
@@ -5095,7 +5114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>10036</v>
       </c>
@@ -5106,7 +5125,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>10037</v>
       </c>
@@ -5117,7 +5136,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10038</v>
       </c>
@@ -5128,7 +5147,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10039</v>
       </c>
@@ -5139,7 +5158,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10040</v>
       </c>
@@ -5150,7 +5169,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10041</v>
       </c>
@@ -5161,7 +5180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10042</v>
       </c>
@@ -5172,7 +5191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>10043</v>
       </c>
@@ -5183,7 +5202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>10044</v>
       </c>
@@ -5194,7 +5213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>10045</v>
       </c>
@@ -5205,7 +5224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10046</v>
       </c>
@@ -5216,7 +5235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>10047</v>
       </c>
@@ -5227,7 +5246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>10048</v>
       </c>
@@ -5238,7 +5257,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>10049</v>
       </c>
@@ -5249,7 +5268,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>10050</v>
       </c>
@@ -5260,7 +5279,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>10051</v>
       </c>
@@ -5271,7 +5290,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>10052</v>
       </c>
@@ -5282,7 +5301,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10053</v>
       </c>
@@ -5293,7 +5312,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10054</v>
       </c>
@@ -5304,7 +5323,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>10055</v>
       </c>
@@ -5315,7 +5334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10056</v>
       </c>
@@ -5326,7 +5345,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>10057</v>
       </c>
@@ -5337,7 +5356,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>10058</v>
       </c>
@@ -5348,7 +5367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>10059</v>
       </c>
@@ -5359,7 +5378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>10060</v>
       </c>
@@ -5370,7 +5389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>10061</v>
       </c>
@@ -5381,7 +5400,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>10062</v>
       </c>
@@ -5392,7 +5411,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>10063</v>
       </c>
@@ -5403,7 +5422,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>10064</v>
       </c>
@@ -5414,7 +5433,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>10065</v>
       </c>
@@ -5425,7 +5444,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>10066</v>
       </c>
@@ -5436,7 +5455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>10067</v>
       </c>
@@ -5447,7 +5466,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>10068</v>
       </c>
@@ -5458,7 +5477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>10069</v>
       </c>
@@ -5469,7 +5488,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>10070</v>
       </c>
@@ -5480,7 +5499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>10071</v>
       </c>
@@ -5491,7 +5510,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>10072</v>
       </c>
@@ -5502,7 +5521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>10073</v>
       </c>
@@ -5513,7 +5532,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>10074</v>
       </c>
@@ -5524,7 +5543,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>10075</v>
       </c>
@@ -5535,7 +5554,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10076</v>
       </c>
@@ -5546,7 +5565,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>10077</v>
       </c>
@@ -5557,7 +5576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>10078</v>
       </c>
@@ -5568,7 +5587,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10079</v>
       </c>
@@ -5579,7 +5598,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>10080</v>
       </c>
@@ -5590,7 +5609,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>10081</v>
       </c>
@@ -5601,7 +5620,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>10082</v>
       </c>
@@ -5612,7 +5631,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>10083</v>
       </c>
@@ -5623,7 +5642,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>10084</v>
       </c>
@@ -5634,7 +5653,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>10085</v>
       </c>
@@ -5645,7 +5664,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>10086</v>
       </c>
@@ -5656,7 +5675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>10087</v>
       </c>
@@ -5667,7 +5686,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>10088</v>
       </c>
@@ -5678,7 +5697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>10089</v>
       </c>
@@ -5689,7 +5708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>10090</v>
       </c>
@@ -5700,7 +5719,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>10091</v>
       </c>
@@ -5711,7 +5730,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>10092</v>
       </c>
@@ -5722,7 +5741,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>10093</v>
       </c>
@@ -5733,7 +5752,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>10094</v>
       </c>
@@ -5744,7 +5763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>10095</v>
       </c>
@@ -5755,7 +5774,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>10096</v>
       </c>
@@ -5766,7 +5785,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>10097</v>
       </c>
@@ -5777,7 +5796,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>10098</v>
       </c>
@@ -5788,7 +5807,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>10099</v>
       </c>
@@ -5799,7 +5818,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>10100</v>
       </c>
@@ -5810,7 +5829,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>10101</v>
       </c>
@@ -5821,7 +5840,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>10102</v>
       </c>
@@ -5832,7 +5851,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>10103</v>
       </c>
@@ -5843,7 +5862,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>10104</v>
       </c>
@@ -5854,7 +5873,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>10105</v>
       </c>
@@ -5865,7 +5884,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>10106</v>
       </c>
@@ -5876,7 +5895,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>10107</v>
       </c>
@@ -5887,7 +5906,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>10108</v>
       </c>
@@ -5898,7 +5917,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>10109</v>
       </c>
@@ -5909,7 +5928,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>10110</v>
       </c>
@@ -5920,7 +5939,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>10111</v>
       </c>
@@ -5931,7 +5950,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>10112</v>
       </c>
@@ -5942,7 +5961,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>10113</v>
       </c>
@@ -5953,7 +5972,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>10114</v>
       </c>
@@ -5964,7 +5983,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>10115</v>
       </c>
@@ -5975,7 +5994,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>10116</v>
       </c>
@@ -5986,7 +6005,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>10117</v>
       </c>
@@ -5997,7 +6016,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>10118</v>
       </c>
@@ -6008,7 +6027,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>10119</v>
       </c>
@@ -6019,7 +6038,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>10120</v>
       </c>
@@ -6030,7 +6049,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>10121</v>
       </c>
@@ -6041,7 +6060,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>10122</v>
       </c>
@@ -6052,7 +6071,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>10123</v>
       </c>
@@ -6063,7 +6082,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>10124</v>
       </c>
@@ -6074,7 +6093,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>10125</v>
       </c>
@@ -6085,7 +6104,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>10126</v>
       </c>
@@ -6096,7 +6115,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>10127</v>
       </c>
@@ -6107,7 +6126,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>10128</v>
       </c>
@@ -6118,7 +6137,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>10129</v>
       </c>
@@ -6129,7 +6148,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>10130</v>
       </c>
@@ -6140,7 +6159,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>10131</v>
       </c>
@@ -6151,7 +6170,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>10132</v>
       </c>
@@ -6162,7 +6181,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>10133</v>
       </c>
@@ -6173,7 +6192,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>10134</v>
       </c>
@@ -6184,7 +6203,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>10135</v>
       </c>
@@ -6195,7 +6214,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>10136</v>
       </c>
@@ -6206,7 +6225,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>10137</v>
       </c>
@@ -6217,7 +6236,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>10138</v>
       </c>
@@ -6228,7 +6247,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>10139</v>
       </c>
@@ -6239,7 +6258,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>10140</v>
       </c>
@@ -6250,7 +6269,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>10141</v>
       </c>
@@ -6261,7 +6280,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>10142</v>
       </c>
@@ -6272,7 +6291,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>10143</v>
       </c>
@@ -6283,7 +6302,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>10144</v>
       </c>
@@ -6294,7 +6313,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>10145</v>
       </c>
@@ -6305,7 +6324,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>10146</v>
       </c>
@@ -6316,7 +6335,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>10147</v>
       </c>
@@ -6327,7 +6346,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>10148</v>
       </c>
@@ -6338,7 +6357,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>10149</v>
       </c>
@@ -6349,7 +6368,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>10150</v>
       </c>
@@ -6360,7 +6379,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>10151</v>
       </c>
@@ -6371,7 +6390,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>10152</v>
       </c>
@@ -6382,7 +6401,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>10153</v>
       </c>
@@ -6393,7 +6412,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>10154</v>
       </c>
@@ -6404,7 +6423,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>10155</v>
       </c>
@@ -6415,7 +6434,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>10156</v>
       </c>
@@ -6426,7 +6445,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>10157</v>
       </c>
@@ -6437,7 +6456,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>10158</v>
       </c>
@@ -6448,7 +6467,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>10159</v>
       </c>
@@ -6459,7 +6478,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>10160</v>
       </c>
@@ -6470,7 +6489,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>10161</v>
       </c>
@@ -6481,7 +6500,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>10162</v>
       </c>
@@ -6492,7 +6511,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>10163</v>
       </c>
@@ -6503,7 +6522,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>10164</v>
       </c>
@@ -6514,7 +6533,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>10165</v>
       </c>
@@ -6525,7 +6544,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>10166</v>
       </c>
@@ -6536,7 +6555,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>10167</v>
       </c>
@@ -6547,7 +6566,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>10168</v>
       </c>
@@ -6558,7 +6577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>10169</v>
       </c>
@@ -6569,7 +6588,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>10170</v>
       </c>
@@ -6580,7 +6599,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>10171</v>
       </c>
@@ -6591,7 +6610,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>10172</v>
       </c>
@@ -6602,7 +6621,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>10173</v>
       </c>
@@ -6613,7 +6632,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>10174</v>
       </c>
@@ -6624,7 +6643,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>10175</v>
       </c>
@@ -6635,7 +6654,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>10176</v>
       </c>
@@ -6646,7 +6665,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>10177</v>
       </c>
@@ -6657,7 +6676,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>10178</v>
       </c>
@@ -6668,7 +6687,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>10179</v>
       </c>
@@ -6679,7 +6698,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>10180</v>
       </c>
@@ -6690,7 +6709,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>10181</v>
       </c>
@@ -6701,7 +6720,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>10182</v>
       </c>
@@ -6712,7 +6731,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>10183</v>
       </c>
@@ -6723,7 +6742,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>10184</v>
       </c>
@@ -6734,7 +6753,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>10185</v>
       </c>
@@ -6745,7 +6764,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>10186</v>
       </c>
@@ -6756,7 +6775,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>10187</v>
       </c>
@@ -6767,7 +6786,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>10188</v>
       </c>
@@ -6778,7 +6797,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>10189</v>
       </c>
@@ -6789,7 +6808,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>10190</v>
       </c>
@@ -6800,7 +6819,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>10191</v>
       </c>
@@ -6811,7 +6830,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>10192</v>
       </c>
@@ -6822,7 +6841,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>10193</v>
       </c>
@@ -6833,7 +6852,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>10194</v>
       </c>
@@ -6844,7 +6863,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>10195</v>
       </c>
@@ -6855,7 +6874,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>10196</v>
       </c>
@@ -6866,7 +6885,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>10197</v>
       </c>
@@ -6877,7 +6896,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>10198</v>
       </c>
@@ -6888,7 +6907,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>10199</v>
       </c>
@@ -6899,7 +6918,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>10200</v>
       </c>
@@ -6910,7 +6929,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>10201</v>
       </c>
@@ -6921,7 +6940,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>10202</v>
       </c>
@@ -6932,7 +6951,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>10203</v>
       </c>
@@ -6943,7 +6962,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>10204</v>
       </c>
@@ -6954,7 +6973,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>10205</v>
       </c>
@@ -6965,7 +6984,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>10206</v>
       </c>
@@ -6976,7 +6995,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>10207</v>
       </c>
@@ -6987,7 +7006,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>10208</v>
       </c>
@@ -6998,7 +7017,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>10209</v>
       </c>
@@ -7009,7 +7028,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>10210</v>
       </c>
@@ -7020,7 +7039,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>10211</v>
       </c>
@@ -7031,7 +7050,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>10212</v>
       </c>
@@ -7042,7 +7061,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>10213</v>
       </c>
@@ -7053,7 +7072,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>10214</v>
       </c>
@@ -7064,7 +7083,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>10215</v>
       </c>
@@ -7075,7 +7094,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>10216</v>
       </c>
@@ -7086,7 +7105,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>10217</v>
       </c>
@@ -7097,7 +7116,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>10218</v>
       </c>
@@ -7108,7 +7127,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>10219</v>
       </c>
@@ -7119,7 +7138,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>10220</v>
       </c>
@@ -7130,7 +7149,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>10221</v>
       </c>
@@ -7141,7 +7160,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>10222</v>
       </c>
@@ -7152,7 +7171,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>10223</v>
       </c>
@@ -7163,7 +7182,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>10224</v>
       </c>
@@ -7174,7 +7193,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>10225</v>
       </c>
@@ -7185,7 +7204,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>10226</v>
       </c>
@@ -7196,7 +7215,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>10227</v>
       </c>
@@ -7207,7 +7226,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>10228</v>
       </c>
@@ -7218,7 +7237,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>10229</v>
       </c>
@@ -7229,7 +7248,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>10230</v>
       </c>
@@ -7240,7 +7259,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>10231</v>
       </c>
@@ -7251,7 +7270,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>10232</v>
       </c>
@@ -7262,7 +7281,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>10233</v>
       </c>
@@ -7273,7 +7292,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>10234</v>
       </c>
@@ -7284,7 +7303,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>10235</v>
       </c>
@@ -7295,7 +7314,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>10236</v>
       </c>
@@ -7306,7 +7325,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>10237</v>
       </c>
@@ -7317,7 +7336,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>10238</v>
       </c>
@@ -7328,7 +7347,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>10239</v>
       </c>
@@ -7339,7 +7358,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>10240</v>
       </c>
@@ -7350,7 +7369,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>10241</v>
       </c>
@@ -7361,7 +7380,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>10242</v>
       </c>
@@ -7372,7 +7391,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>10243</v>
       </c>
@@ -7383,7 +7402,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>10244</v>
       </c>
@@ -7394,7 +7413,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>10245</v>
       </c>
@@ -7405,7 +7424,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>10246</v>
       </c>
@@ -7416,7 +7435,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>10247</v>
       </c>
@@ -7427,7 +7446,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>10248</v>
       </c>
@@ -7438,7 +7457,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>10249</v>
       </c>
@@ -7449,7 +7468,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>10250</v>
       </c>
@@ -7460,7 +7479,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>10251</v>
       </c>
@@ -7471,7 +7490,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>10252</v>
       </c>
@@ -7482,7 +7501,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>10253</v>
       </c>
@@ -7493,7 +7512,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>10254</v>
       </c>
@@ -7504,7 +7523,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>10255</v>
       </c>
@@ -7515,7 +7534,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>10256</v>
       </c>
@@ -7526,7 +7545,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>10257</v>
       </c>
@@ -7537,7 +7556,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>10258</v>
       </c>
@@ -7548,7 +7567,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>10259</v>
       </c>
@@ -7559,7 +7578,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>10260</v>
       </c>
@@ -7570,7 +7589,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>10261</v>
       </c>
@@ -7581,7 +7600,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>10262</v>
       </c>
@@ -7592,7 +7611,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>10263</v>
       </c>
@@ -7603,7 +7622,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>10264</v>
       </c>
@@ -7614,7 +7633,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>10265</v>
       </c>
@@ -7625,7 +7644,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>10266</v>
       </c>
@@ -7636,7 +7655,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>10267</v>
       </c>
@@ -7647,7 +7666,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>10268</v>
       </c>
@@ -7658,7 +7677,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>10269</v>
       </c>
@@ -7669,7 +7688,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>10270</v>
       </c>
@@ -7680,7 +7699,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>10271</v>
       </c>
@@ -7691,7 +7710,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>10272</v>
       </c>
@@ -7702,7 +7721,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>10273</v>
       </c>
@@ -7713,7 +7732,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>10274</v>
       </c>
@@ -7724,7 +7743,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>10275</v>
       </c>
@@ -7735,7 +7754,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>10276</v>
       </c>
@@ -7746,7 +7765,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>10277</v>
       </c>
@@ -7757,7 +7776,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>10278</v>
       </c>
@@ -7768,7 +7787,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>10279</v>
       </c>
@@ -7779,7 +7798,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>10280</v>
       </c>
@@ -7790,7 +7809,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>10281</v>
       </c>
@@ -7801,7 +7820,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>10282</v>
       </c>
@@ -7812,7 +7831,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>10283</v>
       </c>
@@ -7823,7 +7842,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>10284</v>
       </c>
@@ -7834,7 +7853,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>10285</v>
       </c>
@@ -7845,7 +7864,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>10286</v>
       </c>
@@ -7856,7 +7875,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>10287</v>
       </c>
@@ -7867,7 +7886,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>10288</v>
       </c>
@@ -7878,7 +7897,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>10289</v>
       </c>
@@ -7889,7 +7908,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>10290</v>
       </c>
@@ -7900,7 +7919,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>10291</v>
       </c>
@@ -7911,7 +7930,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>10292</v>
       </c>
@@ -7922,7 +7941,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>10293</v>
       </c>
@@ -7933,7 +7952,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>10294</v>
       </c>
@@ -7944,7 +7963,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>10295</v>
       </c>
@@ -7955,7 +7974,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>10296</v>
       </c>
@@ -7966,7 +7985,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>10297</v>
       </c>
@@ -7977,7 +7996,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>10298</v>
       </c>
@@ -7988,7 +8007,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>10299</v>
       </c>
@@ -7999,7 +8018,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>10300</v>
       </c>
@@ -8010,7 +8029,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>10301</v>
       </c>
@@ -8021,7 +8040,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>10302</v>
       </c>
@@ -8032,7 +8051,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>10303</v>
       </c>
@@ -8043,7 +8062,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>10304</v>
       </c>
@@ -8054,7 +8073,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>10305</v>
       </c>
@@ -8065,7 +8084,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>10306</v>
       </c>
@@ -8076,7 +8095,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>10307</v>
       </c>
@@ -8087,7 +8106,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>10308</v>
       </c>
@@ -8098,7 +8117,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>10309</v>
       </c>
@@ -8109,7 +8128,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>10310</v>
       </c>
@@ -8120,7 +8139,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>10311</v>
       </c>
@@ -8131,7 +8150,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>10312</v>
       </c>
@@ -8142,7 +8161,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>10313</v>
       </c>
@@ -8153,7 +8172,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>10314</v>
       </c>
@@ -8164,7 +8183,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>10315</v>
       </c>
@@ -8175,7 +8194,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>10316</v>
       </c>
@@ -8186,7 +8205,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>10317</v>
       </c>
@@ -8197,7 +8216,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>10318</v>
       </c>
@@ -8208,7 +8227,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>10319</v>
       </c>
@@ -8219,7 +8238,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>10320</v>
       </c>
@@ -8230,7 +8249,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>10321</v>
       </c>
@@ -8241,7 +8260,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>10322</v>
       </c>
@@ -8252,7 +8271,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>10323</v>
       </c>
@@ -8263,7 +8282,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>10324</v>
       </c>
@@ -8274,7 +8293,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>10325</v>
       </c>
@@ -8285,7 +8304,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>10326</v>
       </c>
@@ -8296,7 +8315,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>10327</v>
       </c>
@@ -8307,7 +8326,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>10328</v>
       </c>
@@ -8318,7 +8337,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>10329</v>
       </c>
@@ -8329,7 +8348,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>10330</v>
       </c>
@@ -8340,7 +8359,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>10331</v>
       </c>
@@ -8351,7 +8370,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>10332</v>
       </c>
@@ -8362,7 +8381,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>10333</v>
       </c>
@@ -8373,7 +8392,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>10334</v>
       </c>
@@ -8384,7 +8403,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>10335</v>
       </c>
@@ -8395,7 +8414,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>10336</v>
       </c>
@@ -8406,7 +8425,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>10337</v>
       </c>
@@ -8417,7 +8436,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>10338</v>
       </c>
@@ -8428,7 +8447,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>10339</v>
       </c>
@@ -8439,7 +8458,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>10340</v>
       </c>
@@ -8450,7 +8469,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>10341</v>
       </c>
@@ -8461,7 +8480,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>10342</v>
       </c>
@@ -8472,7 +8491,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>10343</v>
       </c>
@@ -8483,7 +8502,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>10344</v>
       </c>
@@ -8494,7 +8513,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>10345</v>
       </c>
@@ -8505,7 +8524,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>10346</v>
       </c>
@@ -8516,7 +8535,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>10347</v>
       </c>
@@ -8527,7 +8546,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>10348</v>
       </c>
@@ -8538,7 +8557,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>10349</v>
       </c>
@@ -8549,7 +8568,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>10350</v>
       </c>
@@ -8560,7 +8579,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>10351</v>
       </c>
@@ -8571,7 +8590,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>10352</v>
       </c>
@@ -8582,7 +8601,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>10353</v>
       </c>
@@ -8593,7 +8612,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>10354</v>
       </c>
@@ -8604,7 +8623,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>10355</v>
       </c>
@@ -8615,7 +8634,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>10356</v>
       </c>
@@ -8626,7 +8645,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>10357</v>
       </c>
@@ -8637,7 +8656,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>10358</v>
       </c>
@@ -8648,7 +8667,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>10359</v>
       </c>
@@ -8659,7 +8678,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>10360</v>
       </c>
@@ -8670,7 +8689,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>10361</v>
       </c>
@@ -8681,7 +8700,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>10362</v>
       </c>
@@ -8692,7 +8711,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>10363</v>
       </c>
@@ -8703,7 +8722,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>10364</v>
       </c>
@@ -8714,7 +8733,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>10365</v>
       </c>
@@ -8725,7 +8744,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>10366</v>
       </c>
@@ -8736,7 +8755,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>10367</v>
       </c>
@@ -8747,7 +8766,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>10368</v>
       </c>
@@ -8758,7 +8777,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>10369</v>
       </c>
@@ -8769,7 +8788,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>10370</v>
       </c>
@@ -8780,7 +8799,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>10371</v>
       </c>
@@ -8791,7 +8810,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>10372</v>
       </c>
@@ -8802,7 +8821,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>10373</v>
       </c>
@@ -8813,7 +8832,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>10374</v>
       </c>
@@ -8824,7 +8843,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>10375</v>
       </c>
@@ -8835,7 +8854,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>10376</v>
       </c>
@@ -8846,7 +8865,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>10377</v>
       </c>
@@ -8857,7 +8876,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>10378</v>
       </c>
@@ -8868,7 +8887,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>10379</v>
       </c>
@@ -8879,7 +8898,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>10380</v>
       </c>
@@ -8890,7 +8909,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>10381</v>
       </c>
@@ -8901,7 +8920,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>10382</v>
       </c>
@@ -8912,7 +8931,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>10383</v>
       </c>
@@ -8923,7 +8942,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>10384</v>
       </c>
@@ -8934,7 +8953,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>10385</v>
       </c>
@@ -8945,7 +8964,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>10386</v>
       </c>
@@ -8956,7 +8975,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>10387</v>
       </c>
@@ -8967,7 +8986,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>10388</v>
       </c>
@@ -8978,7 +8997,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>10389</v>
       </c>
@@ -8989,7 +9008,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>10390</v>
       </c>
@@ -9000,7 +9019,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>10391</v>
       </c>
@@ -9011,7 +9030,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>10392</v>
       </c>
@@ -9022,7 +9041,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>10393</v>
       </c>
@@ -9033,7 +9052,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>10394</v>
       </c>
@@ -9044,7 +9063,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>10395</v>
       </c>
@@ -9055,7 +9074,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>10396</v>
       </c>
@@ -9066,7 +9085,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>10397</v>
       </c>
@@ -9077,7 +9096,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>10398</v>
       </c>
@@ -9088,7 +9107,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>10399</v>
       </c>
@@ -9099,7 +9118,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>10400</v>
       </c>
@@ -9110,7 +9129,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>10401</v>
       </c>
@@ -9121,7 +9140,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>10402</v>
       </c>
@@ -9132,7 +9151,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>10403</v>
       </c>
@@ -9143,7 +9162,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>10404</v>
       </c>
@@ -9154,7 +9173,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>10405</v>
       </c>
@@ -9165,7 +9184,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>10406</v>
       </c>
@@ -9176,7 +9195,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>10407</v>
       </c>
@@ -9187,7 +9206,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>10408</v>
       </c>
@@ -9198,7 +9217,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>10409</v>
       </c>
@@ -9209,7 +9228,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>10410</v>
       </c>
@@ -9220,7 +9239,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>10411</v>
       </c>
@@ -9231,7 +9250,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>10412</v>
       </c>
@@ -9242,7 +9261,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>10413</v>
       </c>
@@ -9253,7 +9272,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>10414</v>
       </c>
@@ -9264,7 +9283,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>10415</v>
       </c>
@@ -9275,7 +9294,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>10416</v>
       </c>
@@ -9286,7 +9305,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>10417</v>
       </c>
@@ -9297,7 +9316,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>10418</v>
       </c>
@@ -9308,7 +9327,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>10419</v>
       </c>
@@ -9319,7 +9338,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>10420</v>
       </c>
@@ -9330,7 +9349,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>10421</v>
       </c>
@@ -9341,7 +9360,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>10422</v>
       </c>
@@ -9352,7 +9371,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>10423</v>
       </c>
@@ -9363,7 +9382,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>10424</v>
       </c>
@@ -9374,7 +9393,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>10425</v>
       </c>
@@ -9385,7 +9404,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>10426</v>
       </c>
@@ -9396,7 +9415,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>10427</v>
       </c>
@@ -9407,7 +9426,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>10428</v>
       </c>
@@ -9418,7 +9437,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>10429</v>
       </c>
@@ -9429,7 +9448,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>10430</v>
       </c>
@@ -9440,7 +9459,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>10431</v>
       </c>
@@ -9451,7 +9470,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>10432</v>
       </c>
@@ -9462,7 +9481,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>10433</v>
       </c>
@@ -9473,7 +9492,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>10434</v>
       </c>
@@ -9484,7 +9503,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>10435</v>
       </c>
@@ -9495,7 +9514,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>10436</v>
       </c>
@@ -9506,7 +9525,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>10437</v>
       </c>
@@ -9517,7 +9536,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>10438</v>
       </c>
@@ -9528,7 +9547,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>10439</v>
       </c>
@@ -9539,7 +9558,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>10440</v>
       </c>
@@ -9550,7 +9569,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>10441</v>
       </c>
@@ -9561,7 +9580,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>10442</v>
       </c>
@@ -9572,7 +9591,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>10443</v>
       </c>
@@ -9583,7 +9602,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>10444</v>
       </c>
@@ -9594,7 +9613,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>10445</v>
       </c>
@@ -9605,7 +9624,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>10446</v>
       </c>
@@ -9616,7 +9635,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>10447</v>
       </c>
@@ -9627,7 +9646,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>10448</v>
       </c>
@@ -9638,7 +9657,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>10449</v>
       </c>
@@ -9649,7 +9668,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>10450</v>
       </c>
@@ -9660,7 +9679,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>10451</v>
       </c>
@@ -9671,7 +9690,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>10452</v>
       </c>
@@ -9682,7 +9701,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>10453</v>
       </c>
@@ -9693,7 +9712,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>10454</v>
       </c>
@@ -9704,7 +9723,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>10455</v>
       </c>
@@ -9715,7 +9734,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>10456</v>
       </c>
@@ -9726,7 +9745,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>10457</v>
       </c>
@@ -9737,7 +9756,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>10458</v>
       </c>
@@ -9748,7 +9767,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>10459</v>
       </c>
@@ -9759,7 +9778,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>10460</v>
       </c>
@@ -9770,7 +9789,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>10461</v>
       </c>
@@ -9781,7 +9800,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>10462</v>
       </c>
@@ -9792,7 +9811,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>10463</v>
       </c>
@@ -9803,7 +9822,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>10464</v>
       </c>
@@ -9814,7 +9833,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>10465</v>
       </c>
@@ -9825,7 +9844,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>10466</v>
       </c>
@@ -9836,7 +9855,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>10467</v>
       </c>
@@ -9847,7 +9866,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>10468</v>
       </c>
@@ -9858,7 +9877,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>10469</v>
       </c>
@@ -9869,7 +9888,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>10470</v>
       </c>
@@ -9880,7 +9899,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>10471</v>
       </c>
@@ -9891,7 +9910,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>10472</v>
       </c>
@@ -9902,7 +9921,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>10473</v>
       </c>
@@ -9913,7 +9932,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>10474</v>
       </c>
@@ -9924,7 +9943,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>10475</v>
       </c>
@@ -9935,7 +9954,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>10476</v>
       </c>
@@ -9946,7 +9965,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>10477</v>
       </c>
@@ -9957,7 +9976,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>10478</v>
       </c>
@@ -9968,7 +9987,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>10479</v>
       </c>
@@ -9979,7 +9998,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>10480</v>
       </c>
@@ -9990,7 +10009,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>10481</v>
       </c>
@@ -10001,7 +10020,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>10482</v>
       </c>
@@ -10012,7 +10031,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>10483</v>
       </c>
@@ -10023,7 +10042,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>10484</v>
       </c>
@@ -10034,7 +10053,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>10485</v>
       </c>
@@ -10045,7 +10064,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>10486</v>
       </c>
@@ -10056,7 +10075,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>10487</v>
       </c>
@@ -10067,7 +10086,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>10488</v>
       </c>
@@ -10078,7 +10097,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>10489</v>
       </c>
@@ -10089,7 +10108,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>10490</v>
       </c>
@@ -10100,7 +10119,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>10491</v>
       </c>
@@ -10111,7 +10130,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>10492</v>
       </c>
@@ -10122,7 +10141,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>10493</v>
       </c>
@@ -10133,7 +10152,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>10494</v>
       </c>
@@ -10144,7 +10163,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>10495</v>
       </c>
@@ -10155,7 +10174,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>10496</v>
       </c>
@@ -10166,7 +10185,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>10497</v>
       </c>
@@ -10177,7 +10196,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>10498</v>
       </c>
@@ -10188,7 +10207,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>10499</v>
       </c>
@@ -10199,7 +10218,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>10500</v>
       </c>
@@ -10210,7 +10229,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>10501</v>
       </c>
@@ -10221,7 +10240,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>10502</v>
       </c>
@@ -10232,7 +10251,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>10503</v>
       </c>
@@ -10243,7 +10262,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>10504</v>
       </c>
@@ -10254,7 +10273,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>10505</v>
       </c>
@@ -10265,7 +10284,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>10506</v>
       </c>
@@ -10276,7 +10295,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>10507</v>
       </c>
@@ -10287,7 +10306,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>10508</v>
       </c>
@@ -10298,7 +10317,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>10509</v>
       </c>
@@ -10309,7 +10328,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>10510</v>
       </c>
@@ -10320,7 +10339,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>10511</v>
       </c>
@@ -10331,7 +10350,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>10512</v>
       </c>
@@ -10342,7 +10361,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>10513</v>
       </c>
@@ -10353,7 +10372,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>10514</v>
       </c>
@@ -10364,7 +10383,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>10515</v>
       </c>
@@ -10375,7 +10394,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>10516</v>
       </c>
@@ -10386,7 +10405,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>10517</v>
       </c>
@@ -10397,7 +10416,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>10518</v>
       </c>
@@ -10408,7 +10427,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>10519</v>
       </c>
@@ -10419,7 +10438,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>10520</v>
       </c>
@@ -10430,7 +10449,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>10521</v>
       </c>
@@ -10441,7 +10460,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>10522</v>
       </c>
@@ -10452,7 +10471,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>10523</v>
       </c>
@@ -10463,7 +10482,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>10524</v>
       </c>
@@ -10474,7 +10493,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>10525</v>
       </c>
@@ -10485,7 +10504,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>10526</v>
       </c>
@@ -10496,7 +10515,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>10527</v>
       </c>
@@ -10507,7 +10526,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>10528</v>
       </c>
@@ -10518,7 +10537,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>10529</v>
       </c>
@@ -10529,7 +10548,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>10530</v>
       </c>
@@ -10540,7 +10559,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>10531</v>
       </c>
@@ -10551,7 +10570,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>10532</v>
       </c>
@@ -10562,7 +10581,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>10533</v>
       </c>
@@ -10573,7 +10592,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>10534</v>
       </c>
@@ -10584,7 +10603,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>10535</v>
       </c>
@@ -10595,7 +10614,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>10536</v>
       </c>
@@ -10606,7 +10625,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>10537</v>
       </c>
@@ -10617,7 +10636,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>10538</v>
       </c>
@@ -10628,7 +10647,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>10539</v>
       </c>
@@ -10639,7 +10658,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>10540</v>
       </c>
@@ -10650,7 +10669,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>10541</v>
       </c>
@@ -10661,7 +10680,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>10542</v>
       </c>
@@ -10672,7 +10691,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>10543</v>
       </c>
@@ -10683,7 +10702,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>10544</v>
       </c>
@@ -10694,7 +10713,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>10545</v>
       </c>
@@ -10705,7 +10724,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>10546</v>
       </c>
@@ -10716,7 +10735,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>10547</v>
       </c>
@@ -10727,7 +10746,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>10548</v>
       </c>
@@ -10738,7 +10757,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>10549</v>
       </c>
@@ -10749,7 +10768,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>10550</v>
       </c>
@@ -10760,7 +10779,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>10551</v>
       </c>
@@ -10771,7 +10790,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>10552</v>
       </c>
@@ -10782,7 +10801,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>10553</v>
       </c>
@@ -10793,7 +10812,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>10554</v>
       </c>
@@ -10804,7 +10823,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>10555</v>
       </c>
@@ -10815,7 +10834,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>10556</v>
       </c>
@@ -10826,7 +10845,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>10557</v>
       </c>
@@ -10837,7 +10856,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>10558</v>
       </c>
@@ -10848,7 +10867,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>10559</v>
       </c>
@@ -10859,7 +10878,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>10560</v>
       </c>
@@ -10870,7 +10889,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>10561</v>
       </c>
@@ -10881,7 +10900,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>10562</v>
       </c>
@@ -10892,7 +10911,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>10563</v>
       </c>
@@ -10903,7 +10922,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>10564</v>
       </c>
@@ -10914,7 +10933,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>10565</v>
       </c>
@@ -10925,7 +10944,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>10566</v>
       </c>
@@ -10936,7 +10955,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>10567</v>
       </c>
@@ -10947,7 +10966,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>10568</v>
       </c>
@@ -10958,7 +10977,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>10569</v>
       </c>
@@ -10969,7 +10988,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>10570</v>
       </c>
@@ -10980,7 +10999,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>10571</v>
       </c>
@@ -10991,7 +11010,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>10572</v>
       </c>
@@ -11002,7 +11021,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>10573</v>
       </c>
@@ -11013,7 +11032,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>10574</v>
       </c>
@@ -11024,7 +11043,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>10575</v>
       </c>
@@ -11035,7 +11054,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>10576</v>
       </c>
@@ -11046,7 +11065,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>10577</v>
       </c>
@@ -11057,7 +11076,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>10578</v>
       </c>
@@ -11068,7 +11087,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>10579</v>
       </c>
@@ -11079,7 +11098,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>10580</v>
       </c>
@@ -11090,7 +11109,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>10581</v>
       </c>
@@ -11101,7 +11120,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>10582</v>
       </c>
@@ -11112,7 +11131,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>10583</v>
       </c>
@@ -11123,7 +11142,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>10584</v>
       </c>
@@ -11134,7 +11153,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>10585</v>
       </c>
@@ -11145,7 +11164,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>10586</v>
       </c>
@@ -11156,7 +11175,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>10587</v>
       </c>
@@ -11167,7 +11186,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>10588</v>
       </c>
@@ -11178,7 +11197,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>10589</v>
       </c>
@@ -11189,7 +11208,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>10590</v>
       </c>
@@ -11200,7 +11219,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>10591</v>
       </c>
@@ -11211,7 +11230,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>10592</v>
       </c>
@@ -11222,7 +11241,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>10593</v>
       </c>
@@ -11233,7 +11252,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>10594</v>
       </c>
@@ -11244,7 +11263,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>10595</v>
       </c>
@@ -11255,7 +11274,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>10596</v>
       </c>
@@ -11266,7 +11285,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>10597</v>
       </c>
@@ -11277,7 +11296,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>10598</v>
       </c>
@@ -11288,7 +11307,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>10599</v>
       </c>
@@ -11299,7 +11318,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>10600</v>
       </c>
@@ -11310,7 +11329,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>10601</v>
       </c>
@@ -11321,7 +11340,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>10602</v>
       </c>
@@ -11332,7 +11351,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>10603</v>
       </c>
@@ -11343,7 +11362,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>10604</v>
       </c>
@@ -11354,7 +11373,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>10605</v>
       </c>
@@ -11365,7 +11384,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>10606</v>
       </c>
@@ -11376,7 +11395,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>10607</v>
       </c>
@@ -11387,7 +11406,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>10608</v>
       </c>
@@ -11398,7 +11417,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>10609</v>
       </c>
@@ -11409,7 +11428,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>10610</v>
       </c>
@@ -11420,7 +11439,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>10611</v>
       </c>
@@ -11431,7 +11450,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>10612</v>
       </c>
@@ -11442,7 +11461,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>10613</v>
       </c>
@@ -11453,7 +11472,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>10614</v>
       </c>
@@ -11464,7 +11483,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>10615</v>
       </c>
@@ -11475,7 +11494,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>10616</v>
       </c>
@@ -11486,7 +11505,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>10617</v>
       </c>
@@ -11497,7 +11516,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>10618</v>
       </c>
@@ -11508,7 +11527,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>10619</v>
       </c>
@@ -11519,7 +11538,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>10620</v>
       </c>
@@ -11530,7 +11549,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>10621</v>
       </c>
@@ -11541,7 +11560,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>10622</v>
       </c>
@@ -11552,7 +11571,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>10623</v>
       </c>
@@ -11563,7 +11582,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>10624</v>
       </c>
@@ -11574,7 +11593,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>10625</v>
       </c>
@@ -11585,7 +11604,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>10626</v>
       </c>
@@ -11596,7 +11615,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>10627</v>
       </c>
@@ -11607,7 +11626,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>10628</v>
       </c>
@@ -11618,7 +11637,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>10629</v>
       </c>
@@ -11629,7 +11648,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>10630</v>
       </c>
@@ -11640,7 +11659,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>10631</v>
       </c>
@@ -11651,7 +11670,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>10632</v>
       </c>
@@ -11662,7 +11681,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>10633</v>
       </c>
@@ -11673,7 +11692,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>10634</v>
       </c>
@@ -11684,7 +11703,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>10635</v>
       </c>
@@ -11695,7 +11714,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>10636</v>
       </c>
@@ -11706,7 +11725,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>10637</v>
       </c>
@@ -11717,7 +11736,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>10638</v>
       </c>
@@ -11728,7 +11747,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>10639</v>
       </c>
@@ -11739,7 +11758,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>10640</v>
       </c>
@@ -11750,7 +11769,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>10641</v>
       </c>
@@ -11761,7 +11780,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>10642</v>
       </c>
@@ -11772,7 +11791,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>10643</v>
       </c>
@@ -11783,7 +11802,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>10644</v>
       </c>
@@ -11794,7 +11813,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>10645</v>
       </c>
@@ -11805,7 +11824,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>10646</v>
       </c>
@@ -11816,7 +11835,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>10647</v>
       </c>
@@ -11827,7 +11846,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>10648</v>
       </c>
@@ -11838,7 +11857,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>10649</v>
       </c>
@@ -11849,7 +11868,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>10650</v>
       </c>
@@ -11860,7 +11879,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>10651</v>
       </c>
@@ -11871,7 +11890,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>10652</v>
       </c>
@@ -11882,7 +11901,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>10653</v>
       </c>
@@ -11893,7 +11912,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>10654</v>
       </c>
@@ -11904,7 +11923,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>10655</v>
       </c>
@@ -11915,7 +11934,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>10656</v>
       </c>
@@ -11926,7 +11945,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>10657</v>
       </c>
@@ -11937,7 +11956,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>10658</v>
       </c>
@@ -11948,7 +11967,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>10659</v>
       </c>
@@ -11959,7 +11978,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>10660</v>
       </c>
@@ -11970,7 +11989,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>10661</v>
       </c>
@@ -11981,7 +12000,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>10662</v>
       </c>
@@ -11992,7 +12011,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>10663</v>
       </c>
@@ -12003,7 +12022,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>10664</v>
       </c>
@@ -12014,7 +12033,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>10665</v>
       </c>
@@ -12025,7 +12044,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>10666</v>
       </c>
@@ -12036,7 +12055,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>10667</v>
       </c>
@@ -12047,7 +12066,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>10668</v>
       </c>
@@ -12058,7 +12077,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>10669</v>
       </c>
@@ -12069,7 +12088,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>10670</v>
       </c>
@@ -12080,7 +12099,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>10671</v>
       </c>
@@ -12091,7 +12110,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>10672</v>
       </c>
@@ -12102,7 +12121,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>10673</v>
       </c>
@@ -12113,7 +12132,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>10674</v>
       </c>
@@ -12124,7 +12143,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>10675</v>
       </c>
@@ -12135,7 +12154,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>10676</v>
       </c>
@@ -12146,7 +12165,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>10677</v>
       </c>
@@ -12157,7 +12176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>10678</v>
       </c>
@@ -12168,7 +12187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>10679</v>
       </c>
@@ -12179,7 +12198,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>10680</v>
       </c>
@@ -12190,7 +12209,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>10681</v>
       </c>
@@ -12201,7 +12220,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>10682</v>
       </c>
@@ -12212,7 +12231,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>10683</v>
       </c>
@@ -12223,7 +12242,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>10684</v>
       </c>
@@ -12234,7 +12253,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>10685</v>
       </c>
@@ -12245,7 +12264,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>10686</v>
       </c>
@@ -12256,7 +12275,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>10687</v>
       </c>
@@ -12267,7 +12286,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>10688</v>
       </c>
@@ -12278,7 +12297,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>10689</v>
       </c>
@@ -12289,7 +12308,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>10690</v>
       </c>
@@ -12300,7 +12319,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>10691</v>
       </c>
@@ -12311,7 +12330,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>10692</v>
       </c>
@@ -12322,7 +12341,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>10693</v>
       </c>
@@ -12333,7 +12352,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>10694</v>
       </c>
@@ -12344,7 +12363,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>10695</v>
       </c>
@@ -12355,7 +12374,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>10696</v>
       </c>
@@ -12366,7 +12385,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>10697</v>
       </c>
@@ -12377,7 +12396,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>10698</v>
       </c>
@@ -12388,7 +12407,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>10699</v>
       </c>
@@ -12399,7 +12418,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>10700</v>
       </c>
@@ -12410,7 +12429,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>10701</v>
       </c>
@@ -12421,7 +12440,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>10702</v>
       </c>
@@ -12432,7 +12451,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>10703</v>
       </c>
@@ -12443,7 +12462,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>10704</v>
       </c>
@@ -12454,7 +12473,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>10705</v>
       </c>
@@ -12465,7 +12484,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>10706</v>
       </c>
@@ -12476,7 +12495,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>10707</v>
       </c>
@@ -12487,7 +12506,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>10708</v>
       </c>
@@ -12498,7 +12517,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>10709</v>
       </c>
@@ -12509,7 +12528,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>10710</v>
       </c>
@@ -12520,7 +12539,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>10711</v>
       </c>
@@ -12531,7 +12550,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>10712</v>
       </c>
@@ -12542,7 +12561,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>10713</v>
       </c>
@@ -12553,7 +12572,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>10714</v>
       </c>
@@ -12564,7 +12583,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>10715</v>
       </c>
@@ -12575,7 +12594,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>10716</v>
       </c>
@@ -12586,7 +12605,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>10717</v>
       </c>
@@ -12597,7 +12616,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>10718</v>
       </c>
@@ -12608,7 +12627,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>10719</v>
       </c>
@@ -12619,7 +12638,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>10720</v>
       </c>
@@ -12630,7 +12649,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>10721</v>
       </c>
@@ -12641,7 +12660,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>10722</v>
       </c>
@@ -12652,7 +12671,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>10723</v>
       </c>
@@ -12663,7 +12682,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>10724</v>
       </c>
@@ -12674,7 +12693,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>10725</v>
       </c>
@@ -12685,7 +12704,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>10726</v>
       </c>
@@ -12696,7 +12715,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>10727</v>
       </c>
@@ -12707,7 +12726,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>10728</v>
       </c>
@@ -12718,7 +12737,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>10729</v>
       </c>
@@ -12729,7 +12748,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>10730</v>
       </c>
@@ -12740,7 +12759,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>10731</v>
       </c>
@@ -12751,7 +12770,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>10732</v>
       </c>
@@ -12762,7 +12781,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>10733</v>
       </c>
@@ -12773,7 +12792,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>10734</v>
       </c>
@@ -12784,7 +12803,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>10735</v>
       </c>
@@ -12795,7 +12814,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>10736</v>
       </c>
@@ -12806,7 +12825,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>10737</v>
       </c>
@@ -12817,7 +12836,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>10738</v>
       </c>
@@ -12828,7 +12847,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>10739</v>
       </c>
@@ -12839,7 +12858,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>10740</v>
       </c>
@@ -12850,7 +12869,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>10741</v>
       </c>
@@ -12861,7 +12880,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>10742</v>
       </c>
@@ -12872,7 +12891,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>10743</v>
       </c>
@@ -12883,7 +12902,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>10744</v>
       </c>
@@ -12894,7 +12913,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>10745</v>
       </c>
@@ -12905,7 +12924,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>10746</v>
       </c>
@@ -12916,7 +12935,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>10747</v>
       </c>
@@ -12927,7 +12946,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>10748</v>
       </c>
@@ -12938,7 +12957,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>10749</v>
       </c>
@@ -12949,7 +12968,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>10750</v>
       </c>
@@ -12960,7 +12979,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>10751</v>
       </c>
@@ -12971,7 +12990,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>10752</v>
       </c>
@@ -12982,7 +13001,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>10753</v>
       </c>
@@ -12993,7 +13012,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>10754</v>
       </c>
@@ -13004,7 +13023,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>10755</v>
       </c>
@@ -13015,7 +13034,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>10756</v>
       </c>
@@ -13026,7 +13045,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>10757</v>
       </c>
@@ -13037,7 +13056,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>10758</v>
       </c>
@@ -13048,7 +13067,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>10759</v>
       </c>
@@ -13059,7 +13078,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>10760</v>
       </c>
@@ -13070,7 +13089,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>10761</v>
       </c>
@@ -13081,7 +13100,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>10762</v>
       </c>
@@ -13092,7 +13111,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>10763</v>
       </c>
@@ -13103,7 +13122,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>10764</v>
       </c>
@@ -13114,7 +13133,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>10765</v>
       </c>
@@ -13125,7 +13144,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>10766</v>
       </c>
@@ -13136,7 +13155,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>10767</v>
       </c>
@@ -13147,7 +13166,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>10768</v>
       </c>
@@ -13158,7 +13177,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>10769</v>
       </c>
@@ -13169,7 +13188,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>10770</v>
       </c>
@@ -13180,7 +13199,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>10771</v>
       </c>
@@ -13191,7 +13210,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>10772</v>
       </c>
@@ -13202,7 +13221,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>10773</v>
       </c>
@@ -13213,7 +13232,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>10774</v>
       </c>
@@ -13224,7 +13243,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>10775</v>
       </c>
@@ -13235,7 +13254,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>10776</v>
       </c>
@@ -13246,7 +13265,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>10777</v>
       </c>
@@ -13257,7 +13276,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>10778</v>
       </c>
@@ -13268,7 +13287,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>10779</v>
       </c>
@@ -13279,7 +13298,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>10780</v>
       </c>
@@ -13290,7 +13309,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>10781</v>
       </c>
@@ -13301,7 +13320,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>10782</v>
       </c>
@@ -13312,7 +13331,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>10783</v>
       </c>
@@ -13323,7 +13342,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>10784</v>
       </c>
@@ -13334,7 +13353,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>10785</v>
       </c>
@@ -13345,7 +13364,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>10786</v>
       </c>
@@ -13356,7 +13375,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>10787</v>
       </c>
@@ -13367,7 +13386,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>10788</v>
       </c>
@@ -13378,7 +13397,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>10789</v>
       </c>
@@ -13389,7 +13408,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>10790</v>
       </c>
@@ -13400,7 +13419,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>10791</v>
       </c>
@@ -13411,7 +13430,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>10792</v>
       </c>
@@ -13422,7 +13441,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>10793</v>
       </c>
@@ -13433,7 +13452,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>10794</v>
       </c>
@@ -13444,7 +13463,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>10795</v>
       </c>
@@ -13455,7 +13474,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>10796</v>
       </c>
@@ -13466,7 +13485,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>10797</v>
       </c>
@@ -13477,7 +13496,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>10798</v>
       </c>
@@ -13488,7 +13507,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>10799</v>
       </c>
@@ -13499,7 +13518,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>10800</v>
       </c>
@@ -13510,7 +13529,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>10801</v>
       </c>
@@ -13521,7 +13540,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>10802</v>
       </c>
@@ -13532,7 +13551,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>10803</v>
       </c>
@@ -13543,7 +13562,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>10804</v>
       </c>
@@ -13554,7 +13573,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>10805</v>
       </c>
@@ -13565,7 +13584,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>10806</v>
       </c>
@@ -13576,7 +13595,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>10807</v>
       </c>
@@ -13587,7 +13606,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>10808</v>
       </c>
@@ -13598,7 +13617,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>10809</v>
       </c>
@@ -13609,7 +13628,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>10810</v>
       </c>
@@ -13620,7 +13639,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>10811</v>
       </c>
@@ -13631,7 +13650,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>10812</v>
       </c>
@@ -13642,7 +13661,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>10813</v>
       </c>
@@ -13653,7 +13672,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>10814</v>
       </c>
@@ -13664,7 +13683,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>10815</v>
       </c>
@@ -13675,7 +13694,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>10816</v>
       </c>
@@ -13686,7 +13705,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>10817</v>
       </c>
@@ -13697,7 +13716,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>10818</v>
       </c>
@@ -13708,7 +13727,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>10819</v>
       </c>
@@ -13719,7 +13738,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>10820</v>
       </c>
@@ -13730,7 +13749,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>10821</v>
       </c>
@@ -13741,7 +13760,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>10822</v>
       </c>
@@ -13752,7 +13771,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>10823</v>
       </c>
@@ -13763,7 +13782,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>10824</v>
       </c>
@@ -13774,7 +13793,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>10825</v>
       </c>
@@ -13785,7 +13804,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>10826</v>
       </c>
@@ -13796,7 +13815,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>10827</v>
       </c>
@@ -13807,7 +13826,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>10828</v>
       </c>
@@ -13818,7 +13837,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>10829</v>
       </c>
@@ -13829,7 +13848,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>10830</v>
       </c>
@@ -13840,7 +13859,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>10831</v>
       </c>
@@ -13851,7 +13870,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>10832</v>
       </c>
@@ -13862,7 +13881,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>10833</v>
       </c>
@@ -13873,7 +13892,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>10834</v>
       </c>
@@ -13884,7 +13903,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>10835</v>
       </c>
@@ -13895,7 +13914,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>10836</v>
       </c>
@@ -13906,7 +13925,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>10837</v>
       </c>
@@ -13917,7 +13936,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>10838</v>
       </c>
@@ -13928,7 +13947,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>10839</v>
       </c>
@@ -13939,7 +13958,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>10840</v>
       </c>
@@ -13950,7 +13969,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>10841</v>
       </c>
@@ -13961,7 +13980,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>10842</v>
       </c>
@@ -13972,7 +13991,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>10843</v>
       </c>
@@ -13983,7 +14002,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>10844</v>
       </c>
@@ -13994,7 +14013,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>10845</v>
       </c>
@@ -14005,7 +14024,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>10846</v>
       </c>
@@ -14016,7 +14035,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>10847</v>
       </c>
@@ -14027,7 +14046,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>10848</v>
       </c>
@@ -14038,7 +14057,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>10849</v>
       </c>
@@ -14049,7 +14068,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>10850</v>
       </c>
@@ -14060,7 +14079,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>10851</v>
       </c>
@@ -14071,7 +14090,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>10852</v>
       </c>
@@ -14082,7 +14101,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>10853</v>
       </c>
@@ -14093,7 +14112,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>10854</v>
       </c>
@@ -14104,7 +14123,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>10855</v>
       </c>
@@ -14115,7 +14134,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>10856</v>
       </c>
@@ -14126,7 +14145,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>10857</v>
       </c>
@@ -14137,7 +14156,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>10858</v>
       </c>
@@ -14148,7 +14167,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>10859</v>
       </c>
@@ -14159,7 +14178,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>10860</v>
       </c>
@@ -14170,7 +14189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>10861</v>
       </c>
@@ -14181,7 +14200,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>10862</v>
       </c>
@@ -14192,7 +14211,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>10863</v>
       </c>
@@ -14203,7 +14222,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>10864</v>
       </c>
@@ -14214,7 +14233,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>10865</v>
       </c>
@@ -14225,7 +14244,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>10866</v>
       </c>
@@ -14236,7 +14255,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>10867</v>
       </c>
@@ -14247,7 +14266,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>10868</v>
       </c>
@@ -14258,7 +14277,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>10869</v>
       </c>
@@ -14269,7 +14288,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>10870</v>
       </c>
@@ -14280,7 +14299,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>10871</v>
       </c>
@@ -14291,7 +14310,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>10872</v>
       </c>
@@ -14302,7 +14321,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>10873</v>
       </c>
@@ -14313,7 +14332,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>10874</v>
       </c>
@@ -14324,7 +14343,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>10875</v>
       </c>
@@ -14335,7 +14354,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>10876</v>
       </c>
@@ -14346,7 +14365,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>10877</v>
       </c>
@@ -14357,7 +14376,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>10878</v>
       </c>
@@ -14368,7 +14387,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>10879</v>
       </c>
@@ -14379,7 +14398,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>10880</v>
       </c>
@@ -14390,7 +14409,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>10881</v>
       </c>
@@ -14401,7 +14420,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>10882</v>
       </c>
@@ -14412,7 +14431,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>10883</v>
       </c>
@@ -14423,7 +14442,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>10884</v>
       </c>
@@ -14434,7 +14453,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>10885</v>
       </c>
@@ -14445,7 +14464,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>10886</v>
       </c>
@@ -14456,7 +14475,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>10887</v>
       </c>
@@ -14467,7 +14486,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>10888</v>
       </c>
@@ -14478,7 +14497,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>10889</v>
       </c>
@@ -14489,7 +14508,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>10890</v>
       </c>
@@ -14500,7 +14519,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>10891</v>
       </c>
@@ -14511,7 +14530,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>10892</v>
       </c>
@@ -14522,7 +14541,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>10893</v>
       </c>
@@ -14533,7 +14552,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>10894</v>
       </c>
@@ -14544,7 +14563,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>10895</v>
       </c>
@@ -14555,7 +14574,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>10896</v>
       </c>
@@ -14566,7 +14585,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>10897</v>
       </c>
@@ -14577,7 +14596,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>10898</v>
       </c>
@@ -14588,7 +14607,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>10899</v>
       </c>
@@ -14599,7 +14618,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>10900</v>
       </c>
@@ -14610,7 +14629,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>10901</v>
       </c>
@@ -14621,7 +14640,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>10902</v>
       </c>
@@ -14632,7 +14651,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>10903</v>
       </c>
@@ -14643,7 +14662,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>10904</v>
       </c>
@@ -14654,7 +14673,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>10905</v>
       </c>
@@ -14665,7 +14684,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>10906</v>
       </c>
@@ -14676,7 +14695,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>10907</v>
       </c>
@@ -14687,7 +14706,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>10908</v>
       </c>
@@ -14698,7 +14717,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>10909</v>
       </c>
@@ -14709,7 +14728,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>10910</v>
       </c>
@@ -14720,7 +14739,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>10911</v>
       </c>
@@ -14731,7 +14750,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>10912</v>
       </c>
@@ -14742,7 +14761,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>10913</v>
       </c>
@@ -14753,7 +14772,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>10914</v>
       </c>
@@ -14764,7 +14783,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>10915</v>
       </c>
@@ -14775,7 +14794,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>10916</v>
       </c>
@@ -14786,7 +14805,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>10917</v>
       </c>
@@ -14797,7 +14816,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>10918</v>
       </c>
@@ -14808,7 +14827,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>10919</v>
       </c>
@@ -14819,7 +14838,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
         <v>10920</v>
       </c>
@@ -14830,7 +14849,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
         <v>10921</v>
       </c>
@@ -14841,7 +14860,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>10922</v>
       </c>
@@ -14852,7 +14871,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>10923</v>
       </c>
@@ -14863,7 +14882,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>10924</v>
       </c>
@@ -14874,7 +14893,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>10925</v>
       </c>
@@ -14885,7 +14904,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>10926</v>
       </c>
@@ -14896,7 +14915,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>10927</v>
       </c>
@@ -14907,7 +14926,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>10928</v>
       </c>
@@ -14918,7 +14937,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>10929</v>
       </c>
@@ -14929,7 +14948,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>10930</v>
       </c>
@@ -14940,7 +14959,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>10931</v>
       </c>
@@ -14951,7 +14970,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>10932</v>
       </c>
@@ -14962,7 +14981,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>10933</v>
       </c>
@@ -14973,7 +14992,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>10934</v>
       </c>
@@ -14984,7 +15003,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>10935</v>
       </c>
@@ -14995,7 +15014,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>10936</v>
       </c>
@@ -15006,7 +15025,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>10937</v>
       </c>
@@ -15017,7 +15036,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
         <v>10938</v>
       </c>
@@ -15028,7 +15047,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>10939</v>
       </c>
@@ -15039,7 +15058,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
         <v>10940</v>
       </c>
@@ -15050,7 +15069,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>10941</v>
       </c>
@@ -15061,7 +15080,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>10942</v>
       </c>
@@ -15072,7 +15091,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
         <v>10943</v>
       </c>
@@ -15083,7 +15102,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
         <v>10944</v>
       </c>
@@ -15094,7 +15113,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>10945</v>
       </c>
@@ -15105,7 +15124,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
         <v>10946</v>
       </c>
@@ -15116,7 +15135,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>10947</v>
       </c>
@@ -15127,7 +15146,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>10948</v>
       </c>
@@ -15138,7 +15157,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
         <v>10949</v>
       </c>
@@ -15149,7 +15168,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>10950</v>
       </c>
@@ -15160,7 +15179,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>10951</v>
       </c>
@@ -15171,7 +15190,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>10952</v>
       </c>
@@ -15182,7 +15201,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>10953</v>
       </c>
@@ -15193,7 +15212,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>10954</v>
       </c>
@@ -15204,7 +15223,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>10955</v>
       </c>
@@ -15215,7 +15234,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>10956</v>
       </c>
@@ -15226,7 +15245,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
         <v>10957</v>
       </c>
@@ -15237,7 +15256,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>10958</v>
       </c>
@@ -15248,7 +15267,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
         <v>10959</v>
       </c>
@@ -15259,7 +15278,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
         <v>10960</v>
       </c>
@@ -15270,7 +15289,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>10961</v>
       </c>
@@ -15281,7 +15300,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>10962</v>
       </c>
@@ -15290,7 +15309,7 @@
       </c>
       <c r="C964" s="1"/>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>10963</v>
       </c>
@@ -15301,7 +15320,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>10964</v>
       </c>
@@ -15312,7 +15331,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>10965</v>
       </c>
@@ -15323,7 +15342,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>10966</v>
       </c>
@@ -15334,7 +15353,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>10967</v>
       </c>
@@ -15345,7 +15364,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
         <v>10968</v>
       </c>
@@ -15356,7 +15375,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>10969</v>
       </c>
@@ -15367,7 +15386,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>10970</v>
       </c>
@@ -15378,7 +15397,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>10971</v>
       </c>
@@ -15389,7 +15408,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>10972</v>
       </c>
@@ -15400,7 +15419,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
         <v>10973</v>
       </c>
@@ -15411,7 +15430,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>10974</v>
       </c>
@@ -15422,7 +15441,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>10975</v>
       </c>
@@ -15433,7 +15452,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>10976</v>
       </c>
@@ -15444,7 +15463,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
         <v>10977</v>
       </c>
@@ -15455,7 +15474,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>10978</v>
       </c>
@@ -15466,7 +15485,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>10979</v>
       </c>
@@ -15477,7 +15496,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>10980</v>
       </c>
@@ -15488,7 +15507,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>10981</v>
       </c>
@@ -15499,7 +15518,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
         <v>10982</v>
       </c>
@@ -15510,7 +15529,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
         <v>10983</v>
       </c>
@@ -15521,7 +15540,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
         <v>10984</v>
       </c>
@@ -15532,7 +15551,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>10985</v>
       </c>
@@ -15543,7 +15562,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
         <v>10986</v>
       </c>
@@ -15554,7 +15573,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
         <v>10987</v>
       </c>
@@ -15565,7 +15584,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
         <v>10988</v>
       </c>
@@ -15576,7 +15595,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>10989</v>
       </c>
@@ -15587,7 +15606,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
         <v>10990</v>
       </c>
@@ -15598,7 +15617,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
         <v>10991</v>
       </c>
@@ -15609,7 +15628,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="994" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
         <v>10992</v>
       </c>
@@ -15620,7 +15639,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
         <v>10993</v>
       </c>
@@ -15631,7 +15650,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
         <v>10994</v>
       </c>
@@ -15642,7 +15661,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
         <v>10995</v>
       </c>
@@ -15653,7 +15672,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
         <v>10996</v>
       </c>
@@ -15664,7 +15683,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
         <v>10997</v>
       </c>
